--- a/VersionRecords/Version 5.2.8 20170120/版本Bug和特性计划及评审表v5.2.8——捷豹.xlsx
+++ b/VersionRecords/Version 5.2.8 20170120/版本Bug和特性计划及评审表v5.2.8——捷豹.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbingqiu/work/Mogo_Doc/VersionRecords/Version ContractSnapshot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbingqiu/work/Mogo_Doc/VersionRecords/Version 5.2.8 20170120/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="6"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.2.8 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -516,37 +516,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>1.         模板文件发布
-VersionRecords\Version ContractSnapshot/配置文件\上线配置文件-捷豹组-顾宝碗.xls
-2.         上线前sql脚本发布
-VersionRecords\Version ContractSnapshot\SQL_Scripts\DDL\ JB02.合同模板及快照索引.sql
-VersionRecords\Version ContractSnapshot\SQL_Scripts\DML\ JB01.通用模板初始化.sql
-VersionRecords\Version ContractSnapshot\SQL_Scripts\DML\ JB02.合同模板参数字典.sql
-3.         mogoroom-tasktracker发布
-4.         历史数据处理, ProcessContractSnapshotTask:Run
-             VersionRecords\Version ContractSnapshot\定时器\历史数据处理定时器（捷豹组）.xlsx
-生产待处理数据量预估：18000笔
-本地测试：4000笔，10线程用时170 s
-5.         等待ProcessContractSnapshotTask:Over
-6.         发布其他war包, 合同模块关联projects
-mogoroom-partner
-mogoroom-partner-pc
-mogoroom-renter
-mogoroom-renterpc
-mogoroom-bs
-7.         上线后sql脚本发布
-VersionRecords\Version ContractSnapshot\SQL_Scripts\DML\ JB03.模板属性历史数据处理(上线后执行).sql
-8.         空窗期数据处理（仅处理上线期间发生的数据，应该很快）
-ProcessContractSnapshotTask:Run
-ProcessContractSnapshotTask:Over
-9.         开始验证
-   验证注意点
-     1）  蘑菇宝合同回归测试，不受影响即可（app、官网）
-   2） 根据(自营、整租、合租)租约生效时间验证合同
-   3） 联机交易：【提交测试】【自定义合同模板】【合同模板配置&amp;合同查看】</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>租客APP个人中心账单订单接口</t>
     <rPh sb="0" eb="1">
       <t>zu'k</t>
@@ -721,6 +690,36 @@
   </si>
   <si>
     <t>5.蘑菇公寓自定义合同模板</t>
+  </si>
+  <si>
+    <t>1.         模板文件发布
+VersionRecords\Version 5.2.8 20170120/配置文件\上线配置文件-捷豹组-顾宝碗.xls
+2.         上线前sql脚本发布
+VersionRecords\Version 5.2.8 20170120\SQL_Scripts\DDL\ JB02.合同模板及快照索引.sql
+VersionRecords\Version 5.2.8 20170120\SQL_Scripts\DML\ JB01.通用模板初始化.sql
+VersionRecords\Version 5.2.8 20170120\SQL_Scripts\DML\ JB02.合同模板参数字典.sql
+3.         mogoroom-tasktracker发布
+4.         历史数据处理, ProcessContractSnapshotTask:Run
+             VersionRecords\Version 5.2.8 20170120\定时器\历史数据处理定时器（捷豹组）.xlsx
+生产待处理数据量预估：18000笔
+本地测试：4000笔，10线程用时170 s
+5.         等待ProcessContractSnapshotTask:Over
+6.         发布其他war包, 合同模块关联projects
+mogoroom-partner
+mogoroom-partner-pc
+mogoroom-renter
+mogoroom-renterpc
+mogoroom-bs
+7.         上线后sql脚本发布
+VersionRecords\Version 5.2.8 20170120\\SQL_Scripts\DML\ JB03.模板属性历史数据处理(上线后执行).sql
+8.         空窗期数据处理（仅处理上线期间发生的数据，应该很快）
+ProcessContractSnapshotTask:Run
+ProcessContractSnapshotTask:Over
+9.         开始验证
+   验证注意点
+     1）  蘑菇宝合同回归测试，不受影响即可（app、官网）
+   2） 根据(自营、整租、合租)租约生效时间验证合同
+   3） 联机交易：【提交测试】【自定义合同模板】【合同模板配置&amp;合同查看】</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1117,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1157,6 +1156,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1419,6 +1424,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="15" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1434,6 +1490,24 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1446,77 +1520,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="15" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="27">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="8"/>
     <cellStyle name="常规 2 2" xfId="6"/>
@@ -1542,6 +1547,8 @@
     <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -2034,7 +2041,7 @@
       <c r="J2" s="50">
         <v>42753</v>
       </c>
-      <c r="K2" s="95" t="s">
+      <c r="K2" s="86" t="s">
         <v>95</v>
       </c>
       <c r="L2" s="58" t="s">
@@ -2080,13 +2087,13 @@
         <v>70</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E3" s="49" t="s">
         <v>72</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G3" s="49" t="s">
         <v>68</v>
@@ -2102,16 +2109,16 @@
       </c>
       <c r="K3" s="49"/>
       <c r="L3" s="58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M3" s="49" t="s">
         <v>75</v>
       </c>
       <c r="N3" s="49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O3" s="49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P3" s="58" t="s">
         <v>78</v>
@@ -2124,7 +2131,7 @@
       </c>
       <c r="S3" s="63"/>
       <c r="T3" s="63" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U3" s="55"/>
       <c r="V3" s="62"/>
@@ -6249,7 +6256,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="196" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="28"/>
       <c r="B2" s="13" t="s">
         <v>81</v>
@@ -6257,43 +6264,43 @@
       <c r="C2" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="77" t="s">
         <v>83</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="87" t="s">
+      <c r="F2" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="87" t="s">
+      <c r="G2" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="88" t="s">
+      <c r="H2" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="89" t="s">
+      <c r="I2" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="J2" s="90" t="s">
+      <c r="J2" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91" t="s">
+      <c r="K2" s="82"/>
+      <c r="L2" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="90" t="s">
+      <c r="M2" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="N2" s="90" t="s">
+      <c r="N2" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="92" t="s">
+      <c r="O2" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="94" t="s">
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="85" t="s">
         <v>94</v>
       </c>
     </row>
@@ -6347,8 +6354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -6365,19 +6372,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
@@ -6415,10 +6422,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="79">
+      <c r="A3" s="96">
         <v>1</v>
       </c>
-      <c r="B3" s="79"/>
+      <c r="B3" s="96"/>
       <c r="C3" s="16"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -6430,8 +6437,8 @@
       <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="98"/>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
@@ -6443,8 +6450,8 @@
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
+      <c r="A5" s="96"/>
+      <c r="B5" s="96"/>
       <c r="C5" s="16"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -6456,8 +6463,8 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="81"/>
-      <c r="B6" s="81"/>
+      <c r="A6" s="98"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -6469,8 +6476,8 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="81"/>
-      <c r="B7" s="81"/>
+      <c r="A7" s="98"/>
+      <c r="B7" s="98"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -6482,8 +6489,8 @@
       <c r="K7" s="24"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="81"/>
-      <c r="B8" s="81"/>
+      <c r="A8" s="98"/>
+      <c r="B8" s="98"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -6495,8 +6502,8 @@
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="81"/>
-      <c r="B9" s="81"/>
+      <c r="A9" s="98"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -6508,8 +6515,8 @@
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
+      <c r="A10" s="97"/>
+      <c r="B10" s="97"/>
       <c r="C10" s="16"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -6534,294 +6541,294 @@
       <c r="K11" s="25"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="99" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
+      <c r="A14" s="92" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="98"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
+      <c r="A15" s="93"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="98"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
+      <c r="A16" s="93"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="98"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
+      <c r="A17" s="93"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="98"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="98"/>
+      <c r="A18" s="93"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="98"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="98"/>
+      <c r="A19" s="93"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="98"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="98"/>
+      <c r="A20" s="93"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="93"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="98"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="98"/>
+      <c r="A21" s="93"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="98"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="98"/>
-      <c r="J22" s="98"/>
+      <c r="A22" s="93"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="98"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="98"/>
+      <c r="A23" s="93"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="93"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="98"/>
-      <c r="B24" s="98"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="98"/>
+      <c r="A24" s="93"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="93"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="98"/>
-      <c r="B25" s="98"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="98"/>
-      <c r="J25" s="98"/>
+      <c r="A25" s="93"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="93"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="98"/>
-      <c r="B26" s="98"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="98"/>
+      <c r="A26" s="93"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="93"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="98"/>
-      <c r="B27" s="98"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="98"/>
-      <c r="J27" s="98"/>
+      <c r="A27" s="93"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="98"/>
-      <c r="B28" s="98"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="98"/>
+      <c r="A28" s="93"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="93"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="98"/>
-      <c r="B29" s="98"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="98"/>
-      <c r="J29" s="98"/>
+      <c r="A29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="93"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="98"/>
-      <c r="B30" s="98"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="98"/>
+      <c r="A30" s="93"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="98"/>
-      <c r="B31" s="98"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="98"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="98"/>
+      <c r="A31" s="93"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="93"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="98"/>
-      <c r="B32" s="98"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="98"/>
-      <c r="G32" s="98"/>
-      <c r="H32" s="98"/>
-      <c r="I32" s="98"/>
-      <c r="J32" s="98"/>
+      <c r="A32" s="93"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="93"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="98"/>
-      <c r="B33" s="98"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="98"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="98"/>
-      <c r="G33" s="98"/>
-      <c r="H33" s="98"/>
-      <c r="I33" s="98"/>
-      <c r="J33" s="98"/>
+      <c r="A33" s="93"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="93"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="98"/>
-      <c r="B34" s="98"/>
-      <c r="C34" s="98"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="98"/>
-      <c r="F34" s="98"/>
-      <c r="G34" s="98"/>
-      <c r="H34" s="98"/>
-      <c r="I34" s="98"/>
-      <c r="J34" s="98"/>
+      <c r="A34" s="93"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="93"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="98"/>
-      <c r="B35" s="98"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="98"/>
-      <c r="F35" s="98"/>
-      <c r="G35" s="98"/>
-      <c r="H35" s="98"/>
-      <c r="I35" s="98"/>
-      <c r="J35" s="98"/>
+      <c r="A35" s="93"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="93"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A36" s="98"/>
-      <c r="B36" s="98"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="98"/>
-      <c r="E36" s="98"/>
-      <c r="F36" s="98"/>
-      <c r="G36" s="98"/>
-      <c r="H36" s="98"/>
-      <c r="I36" s="98"/>
-      <c r="J36" s="98"/>
+      <c r="A36" s="93"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="93"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37" s="98"/>
-      <c r="B37" s="98"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="98"/>
-      <c r="E37" s="98"/>
-      <c r="F37" s="98"/>
-      <c r="G37" s="98"/>
-      <c r="H37" s="98"/>
-      <c r="I37" s="98"/>
-      <c r="J37" s="98"/>
+      <c r="A37" s="93"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="93"/>
+      <c r="J37" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6861,36 +6868,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="106"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="108"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
@@ -6934,533 +6941,522 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A4" s="103">
+      <c r="A4" s="99">
         <v>1</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="99" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="100" t="s">
+      <c r="E4" s="99" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="99" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="89" t="s">
+        <v>131</v>
+      </c>
+      <c r="H4" s="99" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" s="99" t="s">
+        <v>134</v>
+      </c>
+      <c r="J4" s="99" t="s">
+        <v>135</v>
+      </c>
+      <c r="K4" s="99" t="s">
+        <v>135</v>
+      </c>
+      <c r="L4" s="99" t="s">
+        <v>136</v>
+      </c>
+      <c r="M4" s="102"/>
+    </row>
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A5" s="100"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="90" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="103"/>
+    </row>
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A6" s="100"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="103" t="s">
-        <v>131</v>
-      </c>
-      <c r="F4" s="103" t="s">
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="103"/>
+    </row>
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="103"/>
+    </row>
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A8" s="100"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="103"/>
+    </row>
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A9" s="101"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="104"/>
+    </row>
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A10" s="99">
+        <v>2</v>
+      </c>
+      <c r="B10" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="99" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="102" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="99" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="100" t="s">
-        <v>132</v>
-      </c>
-      <c r="H4" s="103" t="s">
+      <c r="G10" s="90" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="99" t="s">
+        <v>159</v>
+      </c>
+      <c r="I10" s="99" t="s">
         <v>134</v>
       </c>
-      <c r="I4" s="103" t="s">
-        <v>135</v>
-      </c>
-      <c r="J4" s="103" t="s">
+      <c r="J10" s="99" t="s">
+        <v>160</v>
+      </c>
+      <c r="K10" s="99" t="s">
+        <v>160</v>
+      </c>
+      <c r="L10" s="99" t="s">
         <v>136</v>
       </c>
-      <c r="K4" s="103" t="s">
-        <v>136</v>
-      </c>
-      <c r="L4" s="103" t="s">
-        <v>137</v>
-      </c>
-      <c r="M4" s="106"/>
-    </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A5" s="104"/>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="101" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="101" t="s">
-        <v>133</v>
-      </c>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="107"/>
-    </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A6" s="104"/>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="101" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="107"/>
-    </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" s="104"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="101" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="107"/>
-    </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="101" t="s">
-        <v>129</v>
-      </c>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="107"/>
-    </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A9" s="105"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="102" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="108"/>
-    </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A10" s="103">
-        <v>2</v>
-      </c>
-      <c r="B10" s="103" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="103" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="106" t="s">
-        <v>138</v>
-      </c>
-      <c r="E10" s="103" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10" s="103" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="101" t="s">
+      <c r="M10" s="90" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A11" s="100"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="90" t="s">
         <v>139</v>
       </c>
-      <c r="H10" s="103" t="s">
-        <v>160</v>
-      </c>
-      <c r="I10" s="103" t="s">
-        <v>135</v>
-      </c>
-      <c r="J10" s="103" t="s">
-        <v>161</v>
-      </c>
-      <c r="K10" s="103" t="s">
-        <v>161</v>
-      </c>
-      <c r="L10" s="103" t="s">
-        <v>137</v>
-      </c>
-      <c r="M10" s="101" t="s">
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="90" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A11" s="104"/>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="101" t="s">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A12" s="100"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="90" t="s">
         <v>140</v>
       </c>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="104"/>
-      <c r="M11" s="101" t="s">
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="90" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A12" s="104"/>
-      <c r="B12" s="104"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="101" t="s">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A13" s="100"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="90" t="s">
         <v>141</v>
       </c>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="104"/>
-      <c r="L12" s="104"/>
-      <c r="M12" s="101" t="s">
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="90" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A13" s="104"/>
-      <c r="B13" s="104"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="101" t="s">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A14" s="100"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="H13" s="104"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="104"/>
-      <c r="M13" s="101" t="s">
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="90" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A14" s="104"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="101" t="s">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A15" s="100"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="101" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A15" s="104"/>
-      <c r="B15" s="104"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="101" t="s">
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="100"/>
+      <c r="M15" s="90"/>
+    </row>
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A16" s="100"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="90" t="s">
         <v>144</v>
       </c>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="104"/>
-      <c r="M15" s="101"/>
-    </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A16" s="104"/>
-      <c r="B16" s="104"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="101" t="s">
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="90"/>
+    </row>
+    <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A17" s="100"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="104"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="104"/>
-      <c r="M16" s="101"/>
-    </row>
-    <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A17" s="104"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="101" t="s">
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="90"/>
+    </row>
+    <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A18" s="100"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="104"/>
-      <c r="M17" s="101"/>
-    </row>
-    <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A18" s="104"/>
-      <c r="B18" s="104"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="101" t="s">
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="90"/>
+    </row>
+    <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A19" s="100"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="104"/>
-      <c r="L18" s="104"/>
-      <c r="M18" s="101"/>
-    </row>
-    <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A19" s="104"/>
-      <c r="B19" s="104"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="101" t="s">
+      <c r="H19" s="100"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="100"/>
+      <c r="M19" s="90"/>
+    </row>
+    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A20" s="100"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H19" s="104"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="104"/>
-      <c r="K19" s="104"/>
-      <c r="L19" s="104"/>
-      <c r="M19" s="101"/>
-    </row>
-    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A20" s="104"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="101" t="s">
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="90"/>
+    </row>
+    <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A21" s="100"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="H20" s="104"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="104"/>
-      <c r="K20" s="104"/>
-      <c r="L20" s="104"/>
-      <c r="M20" s="101"/>
-    </row>
-    <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A21" s="104"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="101" t="s">
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="90"/>
+    </row>
+    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A22" s="100"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="H21" s="104"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="104"/>
-      <c r="K21" s="104"/>
-      <c r="L21" s="104"/>
-      <c r="M21" s="101"/>
-    </row>
-    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A22" s="104"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="104"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="101" t="s">
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="90"/>
+    </row>
+    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="90" t="s">
         <v>151</v>
       </c>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="104"/>
-      <c r="L22" s="104"/>
-      <c r="M22" s="101"/>
-    </row>
-    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A23" s="104"/>
-      <c r="B23" s="104"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="101" t="s">
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="90"/>
+    </row>
+    <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A24" s="100"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="90" t="s">
         <v>152</v>
       </c>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="104"/>
-      <c r="K23" s="104"/>
-      <c r="L23" s="104"/>
-      <c r="M23" s="101"/>
-    </row>
-    <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A24" s="104"/>
-      <c r="B24" s="104"/>
-      <c r="C24" s="104"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="101" t="s">
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="90"/>
+    </row>
+    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A25" s="100"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="90" t="s">
         <v>153</v>
       </c>
-      <c r="H24" s="104"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="104"/>
-      <c r="K24" s="104"/>
-      <c r="L24" s="104"/>
-      <c r="M24" s="101"/>
-    </row>
-    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A25" s="104"/>
-      <c r="B25" s="104"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="101" t="s">
+      <c r="H25" s="100"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="100"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="90"/>
+    </row>
+    <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A26" s="100"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="90" t="s">
         <v>154</v>
       </c>
-      <c r="H25" s="104"/>
-      <c r="I25" s="104"/>
-      <c r="J25" s="104"/>
-      <c r="K25" s="104"/>
-      <c r="L25" s="104"/>
-      <c r="M25" s="101"/>
-    </row>
-    <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A26" s="104"/>
-      <c r="B26" s="104"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="101" t="s">
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="90"/>
+    </row>
+    <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A27" s="100"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="H26" s="104"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="104"/>
-      <c r="K26" s="104"/>
-      <c r="L26" s="104"/>
-      <c r="M26" s="101"/>
-    </row>
-    <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A27" s="104"/>
-      <c r="B27" s="104"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="101" t="s">
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="100"/>
+      <c r="M27" s="90"/>
+    </row>
+    <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A28" s="100"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="H27" s="104"/>
-      <c r="I27" s="104"/>
-      <c r="J27" s="104"/>
-      <c r="K27" s="104"/>
-      <c r="L27" s="104"/>
-      <c r="M27" s="101"/>
-    </row>
-    <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A28" s="104"/>
-      <c r="B28" s="104"/>
-      <c r="C28" s="104"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="101" t="s">
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="100"/>
+      <c r="M28" s="90"/>
+    </row>
+    <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A29" s="100"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="90" t="s">
         <v>157</v>
       </c>
-      <c r="H28" s="104"/>
-      <c r="I28" s="104"/>
-      <c r="J28" s="104"/>
-      <c r="K28" s="104"/>
-      <c r="L28" s="104"/>
-      <c r="M28" s="101"/>
-    </row>
-    <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A29" s="104"/>
-      <c r="B29" s="104"/>
-      <c r="C29" s="104"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="101" t="s">
+      <c r="H29" s="100"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="90"/>
+    </row>
+    <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A30" s="101"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="91" t="s">
         <v>158</v>
       </c>
-      <c r="H29" s="104"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="104"/>
-      <c r="K29" s="104"/>
-      <c r="L29" s="104"/>
-      <c r="M29" s="101"/>
-    </row>
-    <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A30" s="105"/>
-      <c r="B30" s="105"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="102" t="s">
-        <v>159</v>
-      </c>
-      <c r="H30" s="105"/>
-      <c r="I30" s="105"/>
-      <c r="J30" s="105"/>
-      <c r="K30" s="105"/>
-      <c r="L30" s="105"/>
-      <c r="M30" s="102"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="101"/>
+      <c r="K30" s="101"/>
+      <c r="L30" s="101"/>
+      <c r="M30" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="L10:L30"/>
-    <mergeCell ref="F10:F30"/>
-    <mergeCell ref="H10:H30"/>
-    <mergeCell ref="I10:I30"/>
-    <mergeCell ref="J10:J30"/>
-    <mergeCell ref="K10:K30"/>
-    <mergeCell ref="A10:A30"/>
-    <mergeCell ref="B10:B30"/>
-    <mergeCell ref="C10:C30"/>
-    <mergeCell ref="D10:D30"/>
-    <mergeCell ref="E10:E30"/>
     <mergeCell ref="A1:M2"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="B4:B9"/>
@@ -7473,6 +7469,17 @@
     <mergeCell ref="K4:K9"/>
     <mergeCell ref="L4:L9"/>
     <mergeCell ref="M4:M9"/>
+    <mergeCell ref="A10:A30"/>
+    <mergeCell ref="B10:B30"/>
+    <mergeCell ref="C10:C30"/>
+    <mergeCell ref="D10:D30"/>
+    <mergeCell ref="E10:E30"/>
+    <mergeCell ref="L10:L30"/>
+    <mergeCell ref="F10:F30"/>
+    <mergeCell ref="H10:H30"/>
+    <mergeCell ref="I10:I30"/>
+    <mergeCell ref="J10:J30"/>
+    <mergeCell ref="K10:K30"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7503,36 +7510,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="106"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="108"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
@@ -7579,79 +7586,79 @@
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="97" t="s">
+      <c r="D4" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="96" t="s">
+      <c r="E4" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="96" t="s">
+      <c r="F4" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="97" t="s">
+      <c r="G4" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="96" t="s">
+      <c r="H4" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="I4" s="96" t="s">
+      <c r="I4" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="J4" s="96" t="s">
+      <c r="J4" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="K4" s="96" t="s">
+      <c r="K4" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="L4" s="96" t="s">
+      <c r="L4" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="97"/>
+      <c r="M4" s="88"/>
     </row>
     <row r="5" spans="1:13" ht="352" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="97" t="s">
+      <c r="D5" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="96" t="s">
+      <c r="E5" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="96" t="s">
+      <c r="F5" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="G5" s="97" t="s">
+      <c r="G5" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="H5" s="96" t="s">
+      <c r="H5" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="I5" s="96" t="s">
+      <c r="I5" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="J5" s="96" t="s">
+      <c r="J5" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="K5" s="96" t="s">
+      <c r="K5" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="L5" s="96" t="s">
+      <c r="L5" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="M5" s="97" t="s">
+      <c r="M5" s="88" t="s">
         <v>114</v>
       </c>
     </row>
@@ -7867,36 +7874,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="106"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="108"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
@@ -7943,79 +7950,79 @@
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="97" t="s">
+      <c r="D4" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="96" t="s">
+      <c r="E4" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="96" t="s">
+      <c r="F4" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="97" t="s">
+      <c r="G4" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="96" t="s">
+      <c r="H4" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="I4" s="96" t="s">
+      <c r="I4" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="J4" s="96" t="s">
+      <c r="J4" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="K4" s="96" t="s">
+      <c r="K4" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="L4" s="96" t="s">
+      <c r="L4" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="97"/>
+      <c r="M4" s="88"/>
     </row>
     <row r="5" spans="1:13" ht="352" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="97" t="s">
+      <c r="D5" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="96" t="s">
+      <c r="E5" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="96" t="s">
+      <c r="F5" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="G5" s="97" t="s">
+      <c r="G5" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="H5" s="96" t="s">
+      <c r="H5" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="I5" s="96" t="s">
+      <c r="I5" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="J5" s="96" t="s">
+      <c r="J5" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="K5" s="96" t="s">
+      <c r="K5" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="L5" s="96" t="s">
+      <c r="L5" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="M5" s="97" t="s">
+      <c r="M5" s="88" t="s">
         <v>114</v>
       </c>
     </row>
@@ -8212,8 +8219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -8234,36 +8241,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="106"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="108"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
@@ -8307,533 +8314,522 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A4" s="103">
+      <c r="A4" s="99">
         <v>1</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="99" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="100" t="s">
+      <c r="E4" s="99" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="99" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="89" t="s">
+        <v>131</v>
+      </c>
+      <c r="H4" s="99" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" s="99" t="s">
+        <v>134</v>
+      </c>
+      <c r="J4" s="99" t="s">
+        <v>135</v>
+      </c>
+      <c r="K4" s="99" t="s">
+        <v>135</v>
+      </c>
+      <c r="L4" s="99" t="s">
+        <v>136</v>
+      </c>
+      <c r="M4" s="102"/>
+    </row>
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A5" s="100"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="90" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="103"/>
+    </row>
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A6" s="100"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="103" t="s">
-        <v>131</v>
-      </c>
-      <c r="F4" s="103" t="s">
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="103"/>
+    </row>
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="103"/>
+    </row>
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A8" s="100"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="103"/>
+    </row>
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A9" s="101"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="104"/>
+    </row>
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A10" s="99">
+        <v>2</v>
+      </c>
+      <c r="B10" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="99" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="102" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="99" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="100" t="s">
-        <v>132</v>
-      </c>
-      <c r="H4" s="103" t="s">
+      <c r="G10" s="90" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="99" t="s">
+        <v>159</v>
+      </c>
+      <c r="I10" s="99" t="s">
         <v>134</v>
       </c>
-      <c r="I4" s="103" t="s">
-        <v>135</v>
-      </c>
-      <c r="J4" s="103" t="s">
+      <c r="J10" s="99" t="s">
+        <v>160</v>
+      </c>
+      <c r="K10" s="99" t="s">
+        <v>160</v>
+      </c>
+      <c r="L10" s="99" t="s">
         <v>136</v>
       </c>
-      <c r="K4" s="103" t="s">
-        <v>136</v>
-      </c>
-      <c r="L4" s="103" t="s">
-        <v>137</v>
-      </c>
-      <c r="M4" s="106"/>
-    </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A5" s="104"/>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="101" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="101" t="s">
-        <v>133</v>
-      </c>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="107"/>
-    </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A6" s="104"/>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="101" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="107"/>
-    </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" s="104"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="101" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="107"/>
-    </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="101" t="s">
-        <v>129</v>
-      </c>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="107"/>
-    </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A9" s="105"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="102" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="108"/>
-    </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A10" s="103">
-        <v>2</v>
-      </c>
-      <c r="B10" s="103" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="103" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="106" t="s">
-        <v>138</v>
-      </c>
-      <c r="E10" s="103" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10" s="103" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="101" t="s">
+      <c r="M10" s="90" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A11" s="100"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="90" t="s">
         <v>139</v>
       </c>
-      <c r="H10" s="103" t="s">
-        <v>160</v>
-      </c>
-      <c r="I10" s="103" t="s">
-        <v>135</v>
-      </c>
-      <c r="J10" s="103" t="s">
-        <v>161</v>
-      </c>
-      <c r="K10" s="103" t="s">
-        <v>161</v>
-      </c>
-      <c r="L10" s="103" t="s">
-        <v>137</v>
-      </c>
-      <c r="M10" s="101" t="s">
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="90" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A11" s="104"/>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="101" t="s">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A12" s="100"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="90" t="s">
         <v>140</v>
       </c>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="104"/>
-      <c r="M11" s="101" t="s">
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="90" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A12" s="104"/>
-      <c r="B12" s="104"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="101" t="s">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A13" s="100"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="90" t="s">
         <v>141</v>
       </c>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="104"/>
-      <c r="L12" s="104"/>
-      <c r="M12" s="101" t="s">
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="90" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A13" s="104"/>
-      <c r="B13" s="104"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="101" t="s">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A14" s="100"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="H13" s="104"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="104"/>
-      <c r="M13" s="101" t="s">
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="90" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A14" s="104"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="101" t="s">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A15" s="100"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="101" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A15" s="104"/>
-      <c r="B15" s="104"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="101" t="s">
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="100"/>
+      <c r="M15" s="90"/>
+    </row>
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A16" s="100"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="90" t="s">
         <v>144</v>
       </c>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="104"/>
-      <c r="M15" s="101"/>
-    </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A16" s="104"/>
-      <c r="B16" s="104"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="101" t="s">
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="90"/>
+    </row>
+    <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A17" s="100"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="104"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="104"/>
-      <c r="M16" s="101"/>
-    </row>
-    <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A17" s="104"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="101" t="s">
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="90"/>
+    </row>
+    <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A18" s="100"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="104"/>
-      <c r="M17" s="101"/>
-    </row>
-    <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A18" s="104"/>
-      <c r="B18" s="104"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="101" t="s">
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="90"/>
+    </row>
+    <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A19" s="100"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="104"/>
-      <c r="L18" s="104"/>
-      <c r="M18" s="101"/>
-    </row>
-    <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A19" s="104"/>
-      <c r="B19" s="104"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="101" t="s">
+      <c r="H19" s="100"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="100"/>
+      <c r="M19" s="90"/>
+    </row>
+    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A20" s="100"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H19" s="104"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="104"/>
-      <c r="K19" s="104"/>
-      <c r="L19" s="104"/>
-      <c r="M19" s="101"/>
-    </row>
-    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A20" s="104"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="101" t="s">
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="90"/>
+    </row>
+    <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A21" s="100"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="H20" s="104"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="104"/>
-      <c r="K20" s="104"/>
-      <c r="L20" s="104"/>
-      <c r="M20" s="101"/>
-    </row>
-    <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A21" s="104"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="101" t="s">
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="90"/>
+    </row>
+    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A22" s="100"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="H21" s="104"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="104"/>
-      <c r="K21" s="104"/>
-      <c r="L21" s="104"/>
-      <c r="M21" s="101"/>
-    </row>
-    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A22" s="104"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="104"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="101" t="s">
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="90"/>
+    </row>
+    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="90" t="s">
         <v>151</v>
       </c>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="104"/>
-      <c r="L22" s="104"/>
-      <c r="M22" s="101"/>
-    </row>
-    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A23" s="104"/>
-      <c r="B23" s="104"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="101" t="s">
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="90"/>
+    </row>
+    <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A24" s="100"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="90" t="s">
         <v>152</v>
       </c>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="104"/>
-      <c r="K23" s="104"/>
-      <c r="L23" s="104"/>
-      <c r="M23" s="101"/>
-    </row>
-    <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A24" s="104"/>
-      <c r="B24" s="104"/>
-      <c r="C24" s="104"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="101" t="s">
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="90"/>
+    </row>
+    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A25" s="100"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="90" t="s">
         <v>153</v>
       </c>
-      <c r="H24" s="104"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="104"/>
-      <c r="K24" s="104"/>
-      <c r="L24" s="104"/>
-      <c r="M24" s="101"/>
-    </row>
-    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A25" s="104"/>
-      <c r="B25" s="104"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="101" t="s">
+      <c r="H25" s="100"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="100"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="90"/>
+    </row>
+    <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A26" s="100"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="90" t="s">
         <v>154</v>
       </c>
-      <c r="H25" s="104"/>
-      <c r="I25" s="104"/>
-      <c r="J25" s="104"/>
-      <c r="K25" s="104"/>
-      <c r="L25" s="104"/>
-      <c r="M25" s="101"/>
-    </row>
-    <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A26" s="104"/>
-      <c r="B26" s="104"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="101" t="s">
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="90"/>
+    </row>
+    <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A27" s="100"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="H26" s="104"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="104"/>
-      <c r="K26" s="104"/>
-      <c r="L26" s="104"/>
-      <c r="M26" s="101"/>
-    </row>
-    <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A27" s="104"/>
-      <c r="B27" s="104"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="101" t="s">
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="100"/>
+      <c r="M27" s="90"/>
+    </row>
+    <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A28" s="100"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="H27" s="104"/>
-      <c r="I27" s="104"/>
-      <c r="J27" s="104"/>
-      <c r="K27" s="104"/>
-      <c r="L27" s="104"/>
-      <c r="M27" s="101"/>
-    </row>
-    <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A28" s="104"/>
-      <c r="B28" s="104"/>
-      <c r="C28" s="104"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="101" t="s">
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="100"/>
+      <c r="M28" s="90"/>
+    </row>
+    <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A29" s="100"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="90" t="s">
         <v>157</v>
       </c>
-      <c r="H28" s="104"/>
-      <c r="I28" s="104"/>
-      <c r="J28" s="104"/>
-      <c r="K28" s="104"/>
-      <c r="L28" s="104"/>
-      <c r="M28" s="101"/>
-    </row>
-    <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A29" s="104"/>
-      <c r="B29" s="104"/>
-      <c r="C29" s="104"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="101" t="s">
+      <c r="H29" s="100"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="90"/>
+    </row>
+    <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A30" s="101"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="91" t="s">
         <v>158</v>
       </c>
-      <c r="H29" s="104"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="104"/>
-      <c r="K29" s="104"/>
-      <c r="L29" s="104"/>
-      <c r="M29" s="101"/>
-    </row>
-    <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A30" s="105"/>
-      <c r="B30" s="105"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="102" t="s">
-        <v>159</v>
-      </c>
-      <c r="H30" s="105"/>
-      <c r="I30" s="105"/>
-      <c r="J30" s="105"/>
-      <c r="K30" s="105"/>
-      <c r="L30" s="105"/>
-      <c r="M30" s="102"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="101"/>
+      <c r="K30" s="101"/>
+      <c r="L30" s="101"/>
+      <c r="M30" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="L10:L30"/>
-    <mergeCell ref="F10:F30"/>
-    <mergeCell ref="H10:H30"/>
-    <mergeCell ref="I10:I30"/>
-    <mergeCell ref="J10:J30"/>
-    <mergeCell ref="K10:K30"/>
-    <mergeCell ref="A10:A30"/>
-    <mergeCell ref="B10:B30"/>
-    <mergeCell ref="C10:C30"/>
-    <mergeCell ref="D10:D30"/>
-    <mergeCell ref="E10:E30"/>
     <mergeCell ref="A1:M2"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="B4:B9"/>
@@ -8846,6 +8842,17 @@
     <mergeCell ref="K4:K9"/>
     <mergeCell ref="L4:L9"/>
     <mergeCell ref="M4:M9"/>
+    <mergeCell ref="A10:A30"/>
+    <mergeCell ref="B10:B30"/>
+    <mergeCell ref="C10:C30"/>
+    <mergeCell ref="D10:D30"/>
+    <mergeCell ref="E10:E30"/>
+    <mergeCell ref="L10:L30"/>
+    <mergeCell ref="F10:F30"/>
+    <mergeCell ref="H10:H30"/>
+    <mergeCell ref="I10:I30"/>
+    <mergeCell ref="J10:J30"/>
+    <mergeCell ref="K10:K30"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VersionRecords/Version 5.2.8 20170120/版本Bug和特性计划及评审表v5.2.8——捷豹.xlsx
+++ b/VersionRecords/Version 5.2.8 20170120/版本Bug和特性计划及评审表v5.2.8——捷豹.xlsx
@@ -701,7 +701,7 @@
 3.         mogoroom-tasktracker发布
 4.         历史数据处理, ProcessContractSnapshotTask:Run
              VersionRecords\Version 5.2.8 20170120\定时器\历史数据处理定时器（捷豹组）.xlsx
-生产待处理数据量预估：18000笔
+生产待处理数据量预估：18000笔 预发10线程耗时300s不到，线上准备开5线程
 本地测试：4000笔，10线程用时170 s
 5.         等待ProcessContractSnapshotTask:Over
 6.         发布其他war包, 合同模块关联projects
@@ -720,6 +720,31 @@
      1）  蘑菇宝合同回归测试，不受影响即可（app、官网）
    2） 根据(自营、整租、合租)租约生效时间验证合同
    3） 联机交易：【提交测试】【自定义合同模板】【合同模板配置&amp;合同查看】</t>
+    <rPh sb="499" eb="500">
+      <t>yu'f</t>
+    </rPh>
+    <rPh sb="503" eb="504">
+      <t>xian'cheng</t>
+    </rPh>
+    <rPh sb="505" eb="506">
+      <t>hao'shi</t>
+    </rPh>
+    <rPh sb="511" eb="512">
+      <t>bu'dao</t>
+    </rPh>
+    <rPh sb="514" eb="515">
+      <t>xian'sh</t>
+    </rPh>
+    <rPh sb="516" eb="517">
+      <t>zhun'b</t>
+    </rPh>
+    <rPh sb="518" eb="519">
+      <t>kai</t>
+    </rPh>
+    <rPh sb="520" eb="521">
+      <t>xian'c</t>
+    </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1490,6 +1515,18 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1507,18 +1544,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -6355,7 +6380,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -6868,36 +6893,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="106"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="100"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="108"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
@@ -6941,166 +6966,166 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A4" s="99">
+      <c r="A4" s="103">
         <v>1</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="103" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="103" t="s">
         <v>124</v>
       </c>
       <c r="D4" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="99" t="s">
+      <c r="E4" s="103" t="s">
         <v>130</v>
       </c>
-      <c r="F4" s="99" t="s">
+      <c r="F4" s="103" t="s">
         <v>88</v>
       </c>
       <c r="G4" s="89" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="99" t="s">
+      <c r="H4" s="103" t="s">
         <v>133</v>
       </c>
-      <c r="I4" s="99" t="s">
+      <c r="I4" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="J4" s="99" t="s">
+      <c r="J4" s="103" t="s">
         <v>135</v>
       </c>
-      <c r="K4" s="99" t="s">
+      <c r="K4" s="103" t="s">
         <v>135</v>
       </c>
-      <c r="L4" s="99" t="s">
+      <c r="L4" s="103" t="s">
         <v>136</v>
       </c>
-      <c r="M4" s="102"/>
+      <c r="M4" s="106"/>
     </row>
     <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A5" s="100"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
+      <c r="A5" s="104"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
       <c r="D5" s="90" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
       <c r="G5" s="90" t="s">
         <v>132</v>
       </c>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="103"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="107"/>
     </row>
     <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A6" s="100"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
       <c r="D6" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
       <c r="G6" s="90"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="103"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="107"/>
     </row>
     <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
+      <c r="A7" s="104"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
       <c r="D7" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
       <c r="G7" s="90"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="103"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="107"/>
     </row>
     <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A8" s="100"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
       <c r="D8" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
       <c r="G8" s="90"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="103"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="107"/>
     </row>
     <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A9" s="101"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="101"/>
+      <c r="A9" s="105"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
       <c r="D9" s="91" t="s">
         <v>129</v>
       </c>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
       <c r="G9" s="91"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="104"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="108"/>
     </row>
     <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A10" s="99">
+      <c r="A10" s="103">
         <v>2</v>
       </c>
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="103" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="102" t="s">
+      <c r="D10" s="106" t="s">
         <v>137</v>
       </c>
-      <c r="E10" s="99" t="s">
+      <c r="E10" s="103" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="99" t="s">
+      <c r="F10" s="103" t="s">
         <v>88</v>
       </c>
       <c r="G10" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="H10" s="99" t="s">
+      <c r="H10" s="103" t="s">
         <v>159</v>
       </c>
-      <c r="I10" s="99" t="s">
+      <c r="I10" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="J10" s="99" t="s">
+      <c r="J10" s="103" t="s">
         <v>160</v>
       </c>
-      <c r="K10" s="99" t="s">
+      <c r="K10" s="103" t="s">
         <v>160</v>
       </c>
-      <c r="L10" s="99" t="s">
+      <c r="L10" s="103" t="s">
         <v>136</v>
       </c>
       <c r="M10" s="90" t="s">
@@ -7108,355 +7133,366 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A11" s="100"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
+      <c r="A11" s="104"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
       <c r="G11" s="90" t="s">
         <v>139</v>
       </c>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="100"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104"/>
       <c r="M11" s="90" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A12" s="100"/>
-      <c r="B12" s="100"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
       <c r="G12" s="90" t="s">
         <v>140</v>
       </c>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="104"/>
       <c r="M12" s="90" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A13" s="100"/>
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
+      <c r="A13" s="104"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
       <c r="G13" s="90" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="104"/>
       <c r="M13" s="90" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A14" s="100"/>
-      <c r="B14" s="100"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
+      <c r="A14" s="104"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
       <c r="G14" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104"/>
       <c r="M14" s="90" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A15" s="100"/>
-      <c r="B15" s="100"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
+      <c r="A15" s="104"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
       <c r="G15" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="100"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="104"/>
       <c r="M15" s="90"/>
     </row>
     <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A16" s="100"/>
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
+      <c r="A16" s="104"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
       <c r="G16" s="90" t="s">
         <v>144</v>
       </c>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="100"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="104"/>
       <c r="M16" s="90"/>
     </row>
     <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A17" s="100"/>
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
+      <c r="A17" s="104"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
       <c r="G17" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="104"/>
       <c r="M17" s="90"/>
     </row>
     <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A18" s="100"/>
-      <c r="B18" s="100"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
+      <c r="A18" s="104"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
       <c r="G18" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="100"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104"/>
       <c r="M18" s="90"/>
     </row>
     <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A19" s="100"/>
-      <c r="B19" s="100"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
+      <c r="A19" s="104"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
       <c r="G19" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="H19" s="100"/>
-      <c r="I19" s="100"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="100"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="104"/>
       <c r="M19" s="90"/>
     </row>
     <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A20" s="100"/>
-      <c r="B20" s="100"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
+      <c r="A20" s="104"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
       <c r="G20" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H20" s="100"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="104"/>
       <c r="M20" s="90"/>
     </row>
     <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A21" s="100"/>
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
+      <c r="A21" s="104"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
       <c r="G21" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="H21" s="100"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="100"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="104"/>
       <c r="M21" s="90"/>
     </row>
     <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A22" s="100"/>
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
+      <c r="A22" s="104"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
       <c r="G22" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="104"/>
       <c r="M22" s="90"/>
     </row>
     <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
+      <c r="A23" s="104"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
       <c r="G23" s="90" t="s">
         <v>151</v>
       </c>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="100"/>
-      <c r="L23" s="100"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="104"/>
       <c r="M23" s="90"/>
     </row>
     <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A24" s="100"/>
-      <c r="B24" s="100"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
+      <c r="A24" s="104"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
       <c r="G24" s="90" t="s">
         <v>152</v>
       </c>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="104"/>
+      <c r="K24" s="104"/>
+      <c r="L24" s="104"/>
       <c r="M24" s="90"/>
     </row>
     <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A25" s="100"/>
-      <c r="B25" s="100"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="100"/>
+      <c r="A25" s="104"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
       <c r="G25" s="90" t="s">
         <v>153</v>
       </c>
-      <c r="H25" s="100"/>
-      <c r="I25" s="100"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="100"/>
-      <c r="L25" s="100"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="104"/>
+      <c r="K25" s="104"/>
+      <c r="L25" s="104"/>
       <c r="M25" s="90"/>
     </row>
     <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A26" s="100"/>
-      <c r="B26" s="100"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
+      <c r="A26" s="104"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
       <c r="G26" s="90" t="s">
         <v>154</v>
       </c>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="100"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="104"/>
       <c r="M26" s="90"/>
     </row>
     <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A27" s="100"/>
-      <c r="B27" s="100"/>
-      <c r="C27" s="100"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="100"/>
+      <c r="A27" s="104"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
       <c r="G27" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="H27" s="100"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="100"/>
-      <c r="L27" s="100"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="104"/>
+      <c r="L27" s="104"/>
       <c r="M27" s="90"/>
     </row>
     <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A28" s="100"/>
-      <c r="B28" s="100"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="100"/>
+      <c r="A28" s="104"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
       <c r="G28" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="H28" s="100"/>
-      <c r="I28" s="100"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="100"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="104"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="104"/>
+      <c r="L28" s="104"/>
       <c r="M28" s="90"/>
     </row>
     <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A29" s="100"/>
-      <c r="B29" s="100"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="100"/>
+      <c r="A29" s="104"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
       <c r="G29" s="90" t="s">
         <v>157</v>
       </c>
-      <c r="H29" s="100"/>
-      <c r="I29" s="100"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="100"/>
-      <c r="L29" s="100"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="104"/>
+      <c r="J29" s="104"/>
+      <c r="K29" s="104"/>
+      <c r="L29" s="104"/>
       <c r="M29" s="90"/>
     </row>
     <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A30" s="101"/>
-      <c r="B30" s="101"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="101"/>
+      <c r="A30" s="105"/>
+      <c r="B30" s="105"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
       <c r="G30" s="91" t="s">
         <v>158</v>
       </c>
-      <c r="H30" s="101"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="101"/>
-      <c r="K30" s="101"/>
-      <c r="L30" s="101"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="105"/>
+      <c r="L30" s="105"/>
       <c r="M30" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="L10:L30"/>
+    <mergeCell ref="F10:F30"/>
+    <mergeCell ref="H10:H30"/>
+    <mergeCell ref="I10:I30"/>
+    <mergeCell ref="J10:J30"/>
+    <mergeCell ref="K10:K30"/>
+    <mergeCell ref="A10:A30"/>
+    <mergeCell ref="B10:B30"/>
+    <mergeCell ref="C10:C30"/>
+    <mergeCell ref="D10:D30"/>
+    <mergeCell ref="E10:E30"/>
     <mergeCell ref="A1:M2"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="B4:B9"/>
@@ -7469,17 +7505,6 @@
     <mergeCell ref="K4:K9"/>
     <mergeCell ref="L4:L9"/>
     <mergeCell ref="M4:M9"/>
-    <mergeCell ref="A10:A30"/>
-    <mergeCell ref="B10:B30"/>
-    <mergeCell ref="C10:C30"/>
-    <mergeCell ref="D10:D30"/>
-    <mergeCell ref="E10:E30"/>
-    <mergeCell ref="L10:L30"/>
-    <mergeCell ref="F10:F30"/>
-    <mergeCell ref="H10:H30"/>
-    <mergeCell ref="I10:I30"/>
-    <mergeCell ref="J10:J30"/>
-    <mergeCell ref="K10:K30"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7510,36 +7535,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="106"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="100"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="108"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
@@ -7874,36 +7899,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="106"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="100"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="108"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
@@ -8241,36 +8266,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="106"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="100"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="108"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
@@ -8314,166 +8339,166 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A4" s="99">
+      <c r="A4" s="103">
         <v>1</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="103" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="103" t="s">
         <v>124</v>
       </c>
       <c r="D4" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="99" t="s">
+      <c r="E4" s="103" t="s">
         <v>130</v>
       </c>
-      <c r="F4" s="99" t="s">
+      <c r="F4" s="103" t="s">
         <v>88</v>
       </c>
       <c r="G4" s="89" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="99" t="s">
+      <c r="H4" s="103" t="s">
         <v>133</v>
       </c>
-      <c r="I4" s="99" t="s">
+      <c r="I4" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="J4" s="99" t="s">
+      <c r="J4" s="103" t="s">
         <v>135</v>
       </c>
-      <c r="K4" s="99" t="s">
+      <c r="K4" s="103" t="s">
         <v>135</v>
       </c>
-      <c r="L4" s="99" t="s">
+      <c r="L4" s="103" t="s">
         <v>136</v>
       </c>
-      <c r="M4" s="102"/>
+      <c r="M4" s="106"/>
     </row>
     <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A5" s="100"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
+      <c r="A5" s="104"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
       <c r="D5" s="90" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
       <c r="G5" s="90" t="s">
         <v>132</v>
       </c>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="103"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="107"/>
     </row>
     <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A6" s="100"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
       <c r="D6" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
       <c r="G6" s="90"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="103"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="107"/>
     </row>
     <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
+      <c r="A7" s="104"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
       <c r="D7" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
       <c r="G7" s="90"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="103"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="107"/>
     </row>
     <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A8" s="100"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
       <c r="D8" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
       <c r="G8" s="90"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="103"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="107"/>
     </row>
     <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A9" s="101"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="101"/>
+      <c r="A9" s="105"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
       <c r="D9" s="91" t="s">
         <v>129</v>
       </c>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
       <c r="G9" s="91"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="104"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="108"/>
     </row>
     <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A10" s="99">
+      <c r="A10" s="103">
         <v>2</v>
       </c>
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="103" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="102" t="s">
+      <c r="D10" s="106" t="s">
         <v>137</v>
       </c>
-      <c r="E10" s="99" t="s">
+      <c r="E10" s="103" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="99" t="s">
+      <c r="F10" s="103" t="s">
         <v>88</v>
       </c>
       <c r="G10" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="H10" s="99" t="s">
+      <c r="H10" s="103" t="s">
         <v>159</v>
       </c>
-      <c r="I10" s="99" t="s">
+      <c r="I10" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="J10" s="99" t="s">
+      <c r="J10" s="103" t="s">
         <v>160</v>
       </c>
-      <c r="K10" s="99" t="s">
+      <c r="K10" s="103" t="s">
         <v>160</v>
       </c>
-      <c r="L10" s="99" t="s">
+      <c r="L10" s="103" t="s">
         <v>136</v>
       </c>
       <c r="M10" s="90" t="s">
@@ -8481,355 +8506,366 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A11" s="100"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
+      <c r="A11" s="104"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
       <c r="G11" s="90" t="s">
         <v>139</v>
       </c>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="100"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104"/>
       <c r="M11" s="90" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A12" s="100"/>
-      <c r="B12" s="100"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
       <c r="G12" s="90" t="s">
         <v>140</v>
       </c>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="104"/>
       <c r="M12" s="90" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A13" s="100"/>
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
+      <c r="A13" s="104"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
       <c r="G13" s="90" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="104"/>
       <c r="M13" s="90" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A14" s="100"/>
-      <c r="B14" s="100"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
+      <c r="A14" s="104"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
       <c r="G14" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104"/>
       <c r="M14" s="90" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A15" s="100"/>
-      <c r="B15" s="100"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
+      <c r="A15" s="104"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
       <c r="G15" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="100"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="104"/>
       <c r="M15" s="90"/>
     </row>
     <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A16" s="100"/>
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
+      <c r="A16" s="104"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
       <c r="G16" s="90" t="s">
         <v>144</v>
       </c>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="100"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="104"/>
       <c r="M16" s="90"/>
     </row>
     <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A17" s="100"/>
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
+      <c r="A17" s="104"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
       <c r="G17" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="104"/>
       <c r="M17" s="90"/>
     </row>
     <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A18" s="100"/>
-      <c r="B18" s="100"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
+      <c r="A18" s="104"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
       <c r="G18" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="100"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104"/>
       <c r="M18" s="90"/>
     </row>
     <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A19" s="100"/>
-      <c r="B19" s="100"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
+      <c r="A19" s="104"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
       <c r="G19" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="H19" s="100"/>
-      <c r="I19" s="100"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="100"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="104"/>
       <c r="M19" s="90"/>
     </row>
     <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A20" s="100"/>
-      <c r="B20" s="100"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
+      <c r="A20" s="104"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
       <c r="G20" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H20" s="100"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="104"/>
       <c r="M20" s="90"/>
     </row>
     <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A21" s="100"/>
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
+      <c r="A21" s="104"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
       <c r="G21" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="H21" s="100"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="100"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="104"/>
       <c r="M21" s="90"/>
     </row>
     <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A22" s="100"/>
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
+      <c r="A22" s="104"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
       <c r="G22" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="104"/>
       <c r="M22" s="90"/>
     </row>
     <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
+      <c r="A23" s="104"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
       <c r="G23" s="90" t="s">
         <v>151</v>
       </c>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="100"/>
-      <c r="L23" s="100"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="104"/>
       <c r="M23" s="90"/>
     </row>
     <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A24" s="100"/>
-      <c r="B24" s="100"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
+      <c r="A24" s="104"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
       <c r="G24" s="90" t="s">
         <v>152</v>
       </c>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="104"/>
+      <c r="K24" s="104"/>
+      <c r="L24" s="104"/>
       <c r="M24" s="90"/>
     </row>
     <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A25" s="100"/>
-      <c r="B25" s="100"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="100"/>
+      <c r="A25" s="104"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
       <c r="G25" s="90" t="s">
         <v>153</v>
       </c>
-      <c r="H25" s="100"/>
-      <c r="I25" s="100"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="100"/>
-      <c r="L25" s="100"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="104"/>
+      <c r="K25" s="104"/>
+      <c r="L25" s="104"/>
       <c r="M25" s="90"/>
     </row>
     <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A26" s="100"/>
-      <c r="B26" s="100"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
+      <c r="A26" s="104"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
       <c r="G26" s="90" t="s">
         <v>154</v>
       </c>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="100"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="104"/>
       <c r="M26" s="90"/>
     </row>
     <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A27" s="100"/>
-      <c r="B27" s="100"/>
-      <c r="C27" s="100"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="100"/>
+      <c r="A27" s="104"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
       <c r="G27" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="H27" s="100"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="100"/>
-      <c r="L27" s="100"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="104"/>
+      <c r="L27" s="104"/>
       <c r="M27" s="90"/>
     </row>
     <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A28" s="100"/>
-      <c r="B28" s="100"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="100"/>
+      <c r="A28" s="104"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
       <c r="G28" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="H28" s="100"/>
-      <c r="I28" s="100"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="100"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="104"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="104"/>
+      <c r="L28" s="104"/>
       <c r="M28" s="90"/>
     </row>
     <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A29" s="100"/>
-      <c r="B29" s="100"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="100"/>
+      <c r="A29" s="104"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
       <c r="G29" s="90" t="s">
         <v>157</v>
       </c>
-      <c r="H29" s="100"/>
-      <c r="I29" s="100"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="100"/>
-      <c r="L29" s="100"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="104"/>
+      <c r="J29" s="104"/>
+      <c r="K29" s="104"/>
+      <c r="L29" s="104"/>
       <c r="M29" s="90"/>
     </row>
     <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A30" s="101"/>
-      <c r="B30" s="101"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="101"/>
+      <c r="A30" s="105"/>
+      <c r="B30" s="105"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
       <c r="G30" s="91" t="s">
         <v>158</v>
       </c>
-      <c r="H30" s="101"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="101"/>
-      <c r="K30" s="101"/>
-      <c r="L30" s="101"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="105"/>
+      <c r="L30" s="105"/>
       <c r="M30" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="L10:L30"/>
+    <mergeCell ref="F10:F30"/>
+    <mergeCell ref="H10:H30"/>
+    <mergeCell ref="I10:I30"/>
+    <mergeCell ref="J10:J30"/>
+    <mergeCell ref="K10:K30"/>
+    <mergeCell ref="A10:A30"/>
+    <mergeCell ref="B10:B30"/>
+    <mergeCell ref="C10:C30"/>
+    <mergeCell ref="D10:D30"/>
+    <mergeCell ref="E10:E30"/>
     <mergeCell ref="A1:M2"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="B4:B9"/>
@@ -8842,17 +8878,6 @@
     <mergeCell ref="K4:K9"/>
     <mergeCell ref="L4:L9"/>
     <mergeCell ref="M4:M9"/>
-    <mergeCell ref="A10:A30"/>
-    <mergeCell ref="B10:B30"/>
-    <mergeCell ref="C10:C30"/>
-    <mergeCell ref="D10:D30"/>
-    <mergeCell ref="E10:E30"/>
-    <mergeCell ref="L10:L30"/>
-    <mergeCell ref="F10:F30"/>
-    <mergeCell ref="H10:H30"/>
-    <mergeCell ref="I10:I30"/>
-    <mergeCell ref="J10:J30"/>
-    <mergeCell ref="K10:K30"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
